--- a/aldb2/testtables.xlsx
+++ b/aldb2/testtables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ReidA\Dropbox\}Python\aldb2\aldb2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reid\Dropbox\}Python\aldb2\aldb2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CB8E5F-2E00-4A95-B7AA-008A8AE41B89}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F03D06A-D8BC-43D4-91E7-5181E9F4A35A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16190" windowHeight="8040" activeTab="3" xr2:uid="{1368F579-4DED-4000-9C96-9B85A6919733}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16185" windowHeight="8040" activeTab="3" xr2:uid="{1368F579-4DED-4000-9C96-9B85A6919733}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -641,18 +641,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1252,90 +1252,90 @@
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1354,46 +1354,46 @@
       <selection activeCell="D1" sqref="D1:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" customWidth="1"/>
-    <col min="16" max="16" width="11.54296875" customWidth="1"/>
-    <col min="17" max="17" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="N1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1547,14 +1547,14 @@
       <c r="L5" t="b">
         <v>0</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>4</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>5</v>
       </c>
@@ -1665,13 +1665,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="H9">
         <v>6</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H14">
         <v>11</v>
       </c>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="H15">
         <v>12</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H19">
         <v>16</v>
       </c>
@@ -1948,12 +1948,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="H20">
         <v>17</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10</v>
       </c>
@@ -2300,49 +2300,49 @@
       <selection activeCell="A17" sqref="A17:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" customWidth="1"/>
-    <col min="4" max="5" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" customWidth="1"/>
-    <col min="17" max="17" width="18.7265625" customWidth="1"/>
-    <col min="18" max="18" width="18.26953125" customWidth="1"/>
-    <col min="19" max="19" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="5" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="H1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2590,11 +2590,11 @@
       <c r="E7">
         <v>12</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
       <c r="K7">
         <v>4</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>0</v>
       </c>
@@ -2657,13 +2657,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="G10">
         <v>1</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2724,13 +2724,13 @@
       <c r="D13" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2776,15 +2776,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2896,15 +2896,15 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>131</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -3033,43 +3033,43 @@
   <dimension ref="A1:Z66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G66"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="10" max="10" width="12.26953125" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" customWidth="1"/>
-    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7265625" customWidth="1"/>
-    <col min="24" max="24" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="I1" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="I1" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>155</v>
       </c>
@@ -3091,14 +3091,14 @@
       <c r="G2" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3131,31 +3131,31 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="L4" s="6" t="s">
+      <c r="I4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="L4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="P4" s="6" t="s">
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="P4" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
       <c r="U4" s="4"/>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -3960,16 +3960,16 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9" t="s">
+      <c r="K20" s="8"/>
+      <c r="L20" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3988,24 +3988,24 @@
       <c r="F21" t="s">
         <v>172</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="5">
         <f ca="1">RAND()</f>
-        <v>0.64426779256880595</v>
-      </c>
-      <c r="K21" s="8">
+        <v>0.31727935252889772</v>
+      </c>
+      <c r="K21" s="5">
         <f ca="1">COUNTIF($J$21:$J$24,"&lt;"&amp;J21)+1</f>
-        <v>2</v>
-      </c>
-      <c r="L21" s="8">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
         <f ca="1">IF(RAND()&gt;=0.5,RAND(),"")</f>
-        <v>0.53933857134553276</v>
-      </c>
-      <c r="M21" s="8">
+        <v>0.62376225330249868</v>
+      </c>
+      <c r="M21" s="5">
         <f ca="1">IF(L21&lt;&gt;"",COUNTIF($L$21:$L$24,"&gt;"&amp;L21)+1,"")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -4024,24 +4024,24 @@
       <c r="F22" t="s">
         <v>172</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="5">
         <f t="shared" ref="J22:J24" ca="1" si="0">RAND()</f>
-        <v>0.41820380730010775</v>
-      </c>
-      <c r="K22" s="8">
+        <v>0.54170764419368955</v>
+      </c>
+      <c r="K22" s="5">
         <f t="shared" ref="K22:K24" ca="1" si="1">COUNTIF($J$21:$J$24,"&lt;"&amp;J22)+1</f>
-        <v>1</v>
-      </c>
-      <c r="L22" s="8" t="str">
+        <v>4</v>
+      </c>
+      <c r="L22" s="5">
         <f t="shared" ref="L22:L24" ca="1" si="2">IF(RAND()&gt;=0.5,RAND(),"")</f>
-        <v/>
-      </c>
-      <c r="M22" s="8" t="str">
+        <v>0.47686039152690796</v>
+      </c>
+      <c r="M22" s="5">
         <f t="shared" ref="M22:M24" ca="1" si="3">IF(L22&lt;&gt;"",COUNTIF($L$21:$L$24,"&gt;"&amp;L22)+1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -4060,24 +4060,24 @@
       <c r="F23" t="s">
         <v>172</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92507097235974067</v>
-      </c>
-      <c r="K23" s="8">
+        <v>0.41947956525215502</v>
+      </c>
+      <c r="K23" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L23" s="8" t="str">
+        <v>3</v>
+      </c>
+      <c r="L23" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="M23" s="8" t="str">
+      <c r="M23" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -4096,24 +4096,24 @@
       <c r="F24" t="s">
         <v>172</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66779878760119427</v>
-      </c>
-      <c r="K24" s="8">
+        <v>0.38719502675838424</v>
+      </c>
+      <c r="K24" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L24" s="8">
+        <v>2</v>
+      </c>
+      <c r="L24" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80580869735190541</v>
-      </c>
-      <c r="M24" s="8">
+        <v/>
+      </c>
+      <c r="M24" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4946,14 +4946,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:N2"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:N2"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
